--- a/artfynd/A 71283-2018.xlsx
+++ b/artfynd/A 71283-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43517</v>
+        <v>94250512</v>
       </c>
       <c r="B2" t="n">
-        <v>57149</v>
+        <v>96953</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,55 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208260</v>
+        <v>222309</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Huggorm</t>
+          <t>Backstarr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vipera berus</t>
+          <t>Carex ericetorum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>funnen död</t>
-        </is>
-      </c>
+          <t>Pollich</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Milldal (Järflottavägen)., Srm</t>
+          <t>SO Fjättern, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>667106.2274633495</v>
+        <v>666892.2812859369</v>
       </c>
       <c r="R2" t="n">
-        <v>6533951.724918855</v>
+        <v>6534620.358738307</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -764,7 +752,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-07-05</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,17 +762,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-07-05</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Överkörd</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -799,22 +782,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Arne Holmkvist</t>
+          <t>Thomas Strid</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Arne Holmkvist</t>
+          <t>Thomas Strid, Roger Kaufmann, Marie Teilmann</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19150</v>
+        <v>43517</v>
       </c>
       <c r="B3" t="n">
-        <v>55392</v>
+        <v>57149</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,26 +810,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>208257</v>
+        <v>208260</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Huggorm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Vipera berus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -890,7 +878,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2010-06-03</t>
+          <t>2008-07-05</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -900,7 +888,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2010-06-03</t>
+          <t>2008-07-05</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -910,7 +898,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Överkörda.</t>
+          <t>Överkörd</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -937,10 +925,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39858</v>
+        <v>19150</v>
       </c>
       <c r="B4" t="n">
-        <v>57133</v>
+        <v>55392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,52 +937,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100041</v>
+        <v>208257</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hasselsnok</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coronella austriaca</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Laurenti, 1768</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>årsunge</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>funnen död</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Milldal (Norr Kärringboda naturreservat), Srm</t>
+          <t>Milldal (Järflottavägen)., Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>666888.2682425793</v>
+        <v>667106.2274633495</v>
       </c>
       <c r="R4" t="n">
-        <v>6533769.0227189</v>
+        <v>6533951.724918855</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1021,27 +1004,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2010-06-03</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2010-06-03</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>C:a 15 cm lång</t>
+          <t>Överkörda.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1056,22 +1039,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ingereva Bergdahl</t>
+          <t>Arne Holmkvist</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ingereva Bergdahl</t>
+          <t>Arne Holmkvist</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94250512</v>
+        <v>39858</v>
       </c>
       <c r="B5" t="n">
-        <v>96953</v>
+        <v>57133</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1080,43 +1063,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222309</v>
+        <v>100041</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Backstarr</t>
+          <t>Hasselsnok</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carex ericetorum</t>
+          <t>Coronella austriaca</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pollich</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>Laurenti, 1768</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>årsunge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>SO Fjättern, Srm</t>
+          <t>Milldal (Norr Kärringboda naturreservat), Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>666892.2812859369</v>
+        <v>666888.2682425793</v>
       </c>
       <c r="R5" t="n">
-        <v>6534620.358738307</v>
+        <v>6533769.0227189</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1140,22 +1135,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>C:a 15 cm lång</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1170,12 +1170,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Thomas Strid</t>
+          <t>Ingereva Bergdahl</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Thomas Strid, Roger Kaufmann, Marie Teilmann</t>
+          <t>Ingereva Bergdahl</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
